--- a/vegresults/Veg_surveys_herbicide.xlsx
+++ b/vegresults/Veg_surveys_herbicide.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15375" yWindow="0" windowWidth="18270" windowHeight="7545" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="16770" yWindow="0" windowWidth="18270" windowHeight="7545" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="May 2018" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6427" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6427" uniqueCount="118">
   <si>
     <t>Row</t>
   </si>
@@ -347,13 +347,7 @@
     <t>LELA2</t>
   </si>
   <si>
-    <t>ERDU14</t>
-  </si>
-  <si>
     <t>LILE3</t>
-  </si>
-  <si>
-    <t>MELOF</t>
   </si>
   <si>
     <t>COTI13</t>
@@ -1795,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D65">
         <v>0.1</v>
@@ -2099,7 +2093,7 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D84">
         <v>0.1</v>
@@ -4595,7 +4589,7 @@
         <v>4</v>
       </c>
       <c r="C240" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D240">
         <v>0.1</v>
@@ -4867,7 +4861,7 @@
         <v>4</v>
       </c>
       <c r="C257" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D257">
         <v>0.1</v>
@@ -5123,7 +5117,7 @@
         <v>4</v>
       </c>
       <c r="C273" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D273">
         <v>0.1</v>
@@ -5843,7 +5837,7 @@
         <v>4</v>
       </c>
       <c r="C318" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D318">
         <v>0.1</v>
@@ -7475,7 +7469,7 @@
         <v>4</v>
       </c>
       <c r="C420" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D420">
         <v>0.1</v>
@@ -12403,7 +12397,7 @@
         <v>4</v>
       </c>
       <c r="C728" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D728">
         <v>0.1</v>
@@ -12627,7 +12621,7 @@
         <v>4</v>
       </c>
       <c r="C742" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D742">
         <v>0.1</v>
@@ -12883,7 +12877,7 @@
         <v>4</v>
       </c>
       <c r="C758" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D758">
         <v>0.1</v>
@@ -13475,7 +13469,7 @@
         <v>4</v>
       </c>
       <c r="C795" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D795">
         <v>5</v>
@@ -13811,7 +13805,7 @@
         <v>4</v>
       </c>
       <c r="C816" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D816">
         <v>0.1</v>
@@ -14387,7 +14381,7 @@
         <v>4</v>
       </c>
       <c r="C852" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D852">
         <v>0.1</v>
@@ -14883,7 +14877,7 @@
         <v>4</v>
       </c>
       <c r="C883" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D883">
         <v>0.1</v>
@@ -16281,7 +16275,7 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D63">
         <v>5</v>
@@ -16491,7 +16485,7 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -18703,7 +18697,7 @@
         <v>4</v>
       </c>
       <c r="C236" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D236">
         <v>2</v>
@@ -19193,7 +19187,7 @@
         <v>4</v>
       </c>
       <c r="C271" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -19599,7 +19593,7 @@
         <v>4</v>
       </c>
       <c r="C300" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -20299,7 +20293,7 @@
         <v>4</v>
       </c>
       <c r="C350" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D350">
         <v>1</v>
@@ -20495,7 +20489,7 @@
         <v>4</v>
       </c>
       <c r="C364" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D364">
         <v>1</v>
@@ -20761,7 +20755,7 @@
         <v>4</v>
       </c>
       <c r="C383" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D383">
         <v>2</v>
@@ -21419,7 +21413,7 @@
         <v>4</v>
       </c>
       <c r="C430" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D430">
         <v>0.1</v>
@@ -21643,7 +21637,7 @@
         <v>4</v>
       </c>
       <c r="C446" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D446">
         <v>1</v>
@@ -21825,7 +21819,7 @@
         <v>4</v>
       </c>
       <c r="C459" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D459">
         <v>5</v>
@@ -22021,7 +22015,7 @@
         <v>4</v>
       </c>
       <c r="C473" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D473">
         <v>1</v>
@@ -25325,7 +25319,7 @@
         <v>4</v>
       </c>
       <c r="C709" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D709">
         <v>1</v>
@@ -26305,7 +26299,7 @@
         <v>4</v>
       </c>
       <c r="C779" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D779">
         <v>10</v>
@@ -26515,7 +26509,7 @@
         <v>4</v>
       </c>
       <c r="C794" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D794">
         <v>1</v>
@@ -26893,7 +26887,7 @@
         <v>4</v>
       </c>
       <c r="C821" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D821">
         <v>1</v>
@@ -27117,7 +27111,7 @@
         <v>4</v>
       </c>
       <c r="C837" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D837">
         <v>1</v>
@@ -29219,7 +29213,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D103">
         <v>5</v>
@@ -33307,7 +33301,7 @@
         <v>1</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D395">
         <v>2</v>
@@ -34749,7 +34743,7 @@
         <v>1</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D498">
         <v>1</v>
@@ -37479,7 +37473,7 @@
         <v>1</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D693">
         <v>1</v>
@@ -38991,7 +38985,7 @@
         <v>1</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D801">
         <v>1</v>
@@ -39089,7 +39083,7 @@
         <v>1</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D808">
         <v>1</v>
@@ -47979,7 +47973,7 @@
         <v>1</v>
       </c>
       <c r="C1443" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D1443">
         <v>0.1</v>
@@ -50616,7 +50610,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -54858,7 +54852,7 @@
         <v>1</v>
       </c>
       <c r="C400" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D400">
         <v>10</v>
@@ -56244,7 +56238,7 @@
         <v>1</v>
       </c>
       <c r="C499" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D499">
         <v>2</v>
@@ -58848,7 +58842,7 @@
         <v>1</v>
       </c>
       <c r="C685" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D685">
         <v>5</v>
@@ -60220,7 +60214,7 @@
         <v>1</v>
       </c>
       <c r="C783" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D783">
         <v>5</v>
@@ -69894,7 +69888,7 @@
         <v>1</v>
       </c>
       <c r="C1474" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D1474">
         <v>2</v>
@@ -71159,7 +71153,7 @@
   <dimension ref="A1:D1519"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1194" workbookViewId="0">
-      <selection activeCell="D1222" sqref="D1222"/>
+      <selection activeCell="F1208" sqref="F1208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71301,7 +71295,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -72379,7 +72373,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -72463,7 +72457,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -72603,7 +72597,7 @@
         <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -72687,7 +72681,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -72729,7 +72723,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D112">
         <v>3</v>
@@ -73009,7 +73003,7 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D132">
         <v>11</v>
@@ -73079,7 +73073,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D137">
         <v>10</v>
@@ -73205,7 +73199,7 @@
         <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -73359,7 +73353,7 @@
         <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -73499,7 +73493,7 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D167">
         <v>12</v>
@@ -73555,7 +73549,7 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -73639,7 +73633,7 @@
         <v>3</v>
       </c>
       <c r="C177" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="D177">
         <v>11</v>
@@ -73989,7 +73983,7 @@
         <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D202">
         <v>7</v>
@@ -74115,7 +74109,7 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D211">
         <v>4</v>
@@ -74269,7 +74263,7 @@
         <v>2</v>
       </c>
       <c r="C222" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -74367,7 +74361,7 @@
         <v>3</v>
       </c>
       <c r="C229" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -74493,7 +74487,7 @@
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -74871,7 +74865,7 @@
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D265">
         <v>10</v>
@@ -74983,7 +74977,7 @@
         <v>2</v>
       </c>
       <c r="C273" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D273">
         <v>9</v>
@@ -75039,7 +75033,7 @@
         <v>3</v>
       </c>
       <c r="C277" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D277">
         <v>15</v>
@@ -75263,7 +75257,7 @@
         <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -75781,7 +75775,7 @@
         <v>2</v>
       </c>
       <c r="C330" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D330">
         <v>1</v>
@@ -75879,7 +75873,7 @@
         <v>3</v>
       </c>
       <c r="C337" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D337">
         <v>1</v>
@@ -75991,7 +75985,7 @@
         <v>4</v>
       </c>
       <c r="C345" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D345">
         <v>1</v>
@@ -76019,7 +76013,7 @@
         <v>1</v>
       </c>
       <c r="C347" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D347">
         <v>4</v>
@@ -76103,7 +76097,7 @@
         <v>1</v>
       </c>
       <c r="C353" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D353">
         <v>2</v>
@@ -76173,7 +76167,7 @@
         <v>2</v>
       </c>
       <c r="C358" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D358">
         <v>1</v>
@@ -76313,7 +76307,7 @@
         <v>4</v>
       </c>
       <c r="C368" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D368">
         <v>5</v>
@@ -76341,7 +76335,7 @@
         <v>4</v>
       </c>
       <c r="C370" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D370">
         <v>6</v>
@@ -76355,7 +76349,7 @@
         <v>4</v>
       </c>
       <c r="C371" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D371">
         <v>1</v>
@@ -76439,7 +76433,7 @@
         <v>1</v>
       </c>
       <c r="C377" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D377">
         <v>4</v>
@@ -76775,7 +76769,7 @@
         <v>1</v>
       </c>
       <c r="C401" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D401">
         <v>2</v>
@@ -76817,7 +76811,7 @@
         <v>1</v>
       </c>
       <c r="C404" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D404">
         <v>5</v>
@@ -76943,7 +76937,7 @@
         <v>2</v>
       </c>
       <c r="C413" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D413">
         <v>2</v>
@@ -77153,7 +77147,7 @@
         <v>4</v>
       </c>
       <c r="C428" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D428">
         <v>5</v>
@@ -77517,7 +77511,7 @@
         <v>4</v>
       </c>
       <c r="C454" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D454">
         <v>5</v>
@@ -77881,7 +77875,7 @@
         <v>4</v>
       </c>
       <c r="C480" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D480">
         <v>14</v>
@@ -77979,7 +77973,7 @@
         <v>3</v>
       </c>
       <c r="C487" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D487">
         <v>5</v>
@@ -78343,7 +78337,7 @@
         <v>1</v>
       </c>
       <c r="C513" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D513">
         <v>5</v>
@@ -78399,7 +78393,7 @@
         <v>2</v>
       </c>
       <c r="C517" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D517">
         <v>1</v>
@@ -78469,7 +78463,7 @@
         <v>2</v>
       </c>
       <c r="C522" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D522">
         <v>1</v>
@@ -78567,7 +78561,7 @@
         <v>3</v>
       </c>
       <c r="C529" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D529">
         <v>1</v>
@@ -78581,7 +78575,7 @@
         <v>3</v>
       </c>
       <c r="C530" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D530">
         <v>3</v>
@@ -78693,7 +78687,7 @@
         <v>4</v>
       </c>
       <c r="C538" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D538">
         <v>5</v>
@@ -78721,7 +78715,7 @@
         <v>4</v>
       </c>
       <c r="C540" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D540">
         <v>2</v>
@@ -78749,7 +78743,7 @@
         <v>4</v>
       </c>
       <c r="C542" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D542">
         <v>1</v>
@@ -78763,7 +78757,7 @@
         <v>4</v>
       </c>
       <c r="C543" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D543">
         <v>1</v>
@@ -79169,7 +79163,7 @@
         <v>1</v>
       </c>
       <c r="C572" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D572">
         <v>1</v>
@@ -79225,7 +79219,7 @@
         <v>2</v>
       </c>
       <c r="C576" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D576">
         <v>5</v>
@@ -79365,7 +79359,7 @@
         <v>3</v>
       </c>
       <c r="C586" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D586">
         <v>1</v>
@@ -79379,7 +79373,7 @@
         <v>3</v>
       </c>
       <c r="C587" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D587">
         <v>1</v>
@@ -79407,7 +79401,7 @@
         <v>3</v>
       </c>
       <c r="C589" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D589">
         <v>1</v>
@@ -79463,7 +79457,7 @@
         <v>4</v>
       </c>
       <c r="C593" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D593">
         <v>5</v>
@@ -79589,7 +79583,7 @@
         <v>1</v>
       </c>
       <c r="C602" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D602">
         <v>12</v>
@@ -79855,7 +79849,7 @@
         <v>3</v>
       </c>
       <c r="C621" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D621">
         <v>1</v>
@@ -79953,7 +79947,7 @@
         <v>4</v>
       </c>
       <c r="C628" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D628">
         <v>2</v>
@@ -79967,7 +79961,7 @@
         <v>4</v>
       </c>
       <c r="C629" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D629">
         <v>2</v>
@@ -80135,7 +80129,7 @@
         <v>3</v>
       </c>
       <c r="C641" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D641">
         <v>5</v>
@@ -80163,7 +80157,7 @@
         <v>3</v>
       </c>
       <c r="C643" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D643">
         <v>1</v>
@@ -80261,7 +80255,7 @@
         <v>2</v>
       </c>
       <c r="C650" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D650">
         <v>1</v>
@@ -80345,7 +80339,7 @@
         <v>1</v>
       </c>
       <c r="C656" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D656">
         <v>10</v>
@@ -80499,7 +80493,7 @@
         <v>1</v>
       </c>
       <c r="C667" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D667">
         <v>1</v>
@@ -80513,7 +80507,7 @@
         <v>1</v>
       </c>
       <c r="C668" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D668">
         <v>2</v>
@@ -80555,7 +80549,7 @@
         <v>1</v>
       </c>
       <c r="C671" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D671">
         <v>4</v>
@@ -80583,7 +80577,7 @@
         <v>1</v>
       </c>
       <c r="C673" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D673">
         <v>1</v>
@@ -80751,7 +80745,7 @@
         <v>3</v>
       </c>
       <c r="C685" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D685">
         <v>2</v>
@@ -80779,7 +80773,7 @@
         <v>3</v>
       </c>
       <c r="C687" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D687">
         <v>10</v>
@@ -80877,7 +80871,7 @@
         <v>4</v>
       </c>
       <c r="C694" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D694">
         <v>2</v>
@@ -80891,7 +80885,7 @@
         <v>4</v>
       </c>
       <c r="C695" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D695">
         <v>1</v>
@@ -81045,7 +81039,7 @@
         <v>4</v>
       </c>
       <c r="C706" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D706">
         <v>2</v>
@@ -81297,7 +81291,7 @@
         <v>1</v>
       </c>
       <c r="C724" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D724">
         <v>4</v>
@@ -81339,7 +81333,7 @@
         <v>1</v>
       </c>
       <c r="C727" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D727">
         <v>8</v>
@@ -81395,7 +81389,7 @@
         <v>1</v>
       </c>
       <c r="C731" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D731">
         <v>4</v>
@@ -81479,7 +81473,7 @@
         <v>1</v>
       </c>
       <c r="C737" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D737">
         <v>25</v>
@@ -81507,7 +81501,7 @@
         <v>1</v>
       </c>
       <c r="C739" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D739">
         <v>8</v>
@@ -81619,7 +81613,7 @@
         <v>2</v>
       </c>
       <c r="C747" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D747">
         <v>4</v>
@@ -81647,7 +81641,7 @@
         <v>2</v>
       </c>
       <c r="C749" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D749">
         <v>1</v>
@@ -81857,7 +81851,7 @@
         <v>4</v>
       </c>
       <c r="C764" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D764">
         <v>2</v>
@@ -81885,7 +81879,7 @@
         <v>4</v>
       </c>
       <c r="C766" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D766">
         <v>1</v>
@@ -81969,7 +81963,7 @@
         <v>4</v>
       </c>
       <c r="C772" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D772">
         <v>1</v>
@@ -81997,7 +81991,7 @@
         <v>4</v>
       </c>
       <c r="C774" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D774">
         <v>1</v>
@@ -82109,7 +82103,7 @@
         <v>3</v>
       </c>
       <c r="C782" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D782">
         <v>1</v>
@@ -82207,7 +82201,7 @@
         <v>2</v>
       </c>
       <c r="C789" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D789">
         <v>1</v>
@@ -82319,7 +82313,7 @@
         <v>1</v>
       </c>
       <c r="C797" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D797">
         <v>15</v>
@@ -82375,7 +82369,7 @@
         <v>1</v>
       </c>
       <c r="C801" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D801">
         <v>15</v>
@@ -82445,7 +82439,7 @@
         <v>1</v>
       </c>
       <c r="C806" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D806">
         <v>1</v>
@@ -82515,7 +82509,7 @@
         <v>1</v>
       </c>
       <c r="C811" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D811">
         <v>1</v>
@@ -82655,7 +82649,7 @@
         <v>3</v>
       </c>
       <c r="C821" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D821">
         <v>5</v>
@@ -82977,7 +82971,7 @@
         <v>1</v>
       </c>
       <c r="C844" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D844">
         <v>2</v>
@@ -83005,7 +82999,7 @@
         <v>1</v>
       </c>
       <c r="C846" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D846">
         <v>60</v>
@@ -83047,7 +83041,7 @@
         <v>1</v>
       </c>
       <c r="C849" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D849">
         <v>5</v>
@@ -83369,7 +83363,7 @@
         <v>4</v>
       </c>
       <c r="C872" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D872">
         <v>5</v>
@@ -83439,7 +83433,7 @@
         <v>4</v>
       </c>
       <c r="C877" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D877">
         <v>2</v>
@@ -83509,7 +83503,7 @@
         <v>3</v>
       </c>
       <c r="C882" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D882">
         <v>2</v>
@@ -83635,7 +83629,7 @@
         <v>2</v>
       </c>
       <c r="C891" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D891">
         <v>4</v>
@@ -83691,7 +83685,7 @@
         <v>1</v>
       </c>
       <c r="C895" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D895">
         <v>35</v>
@@ -83747,7 +83741,7 @@
         <v>1</v>
       </c>
       <c r="C899" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D899">
         <v>8</v>
@@ -83789,7 +83783,7 @@
         <v>1</v>
       </c>
       <c r="C902" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D902">
         <v>2</v>
@@ -83831,7 +83825,7 @@
         <v>1</v>
       </c>
       <c r="C905" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D905">
         <v>5</v>
@@ -83845,7 +83839,7 @@
         <v>1</v>
       </c>
       <c r="C906" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D906">
         <v>10</v>
@@ -84125,7 +84119,7 @@
         <v>4</v>
       </c>
       <c r="C926" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D926">
         <v>3</v>
@@ -84139,7 +84133,7 @@
         <v>4</v>
       </c>
       <c r="C927" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D927">
         <v>5</v>
@@ -84265,7 +84259,7 @@
         <v>4</v>
       </c>
       <c r="C936" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D936">
         <v>2</v>
@@ -84293,7 +84287,7 @@
         <v>4</v>
       </c>
       <c r="C938" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D938">
         <v>1</v>
@@ -84517,7 +84511,7 @@
         <v>2</v>
       </c>
       <c r="C954" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D954">
         <v>2</v>
@@ -84545,7 +84539,7 @@
         <v>1</v>
       </c>
       <c r="C956" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D956">
         <v>30</v>
@@ -84615,7 +84609,7 @@
         <v>1</v>
       </c>
       <c r="C961" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D961">
         <v>1</v>
@@ -84671,7 +84665,7 @@
         <v>1</v>
       </c>
       <c r="C965" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D965">
         <v>10</v>
@@ -84713,7 +84707,7 @@
         <v>1</v>
       </c>
       <c r="C968" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D968">
         <v>3</v>
@@ -84755,7 +84749,7 @@
         <v>2</v>
       </c>
       <c r="C971" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D971">
         <v>20</v>
@@ -84839,7 +84833,7 @@
         <v>2</v>
       </c>
       <c r="C977" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D977">
         <v>2</v>
@@ -84881,7 +84875,7 @@
         <v>3</v>
       </c>
       <c r="C980" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D980">
         <v>15</v>
@@ -84993,7 +84987,7 @@
         <v>4</v>
       </c>
       <c r="C988" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D988">
         <v>4</v>
@@ -85021,7 +85015,7 @@
         <v>4</v>
       </c>
       <c r="C990" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D990">
         <v>10</v>
@@ -85063,7 +85057,7 @@
         <v>4</v>
       </c>
       <c r="C993" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D993">
         <v>4</v>
@@ -85077,7 +85071,7 @@
         <v>4</v>
       </c>
       <c r="C994" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D994">
         <v>2</v>
@@ -85539,7 +85533,7 @@
         <v>2</v>
       </c>
       <c r="C1027" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1027">
         <v>1</v>
@@ -85637,7 +85631,7 @@
         <v>3</v>
       </c>
       <c r="C1034" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1034">
         <v>2</v>
@@ -85651,7 +85645,7 @@
         <v>3</v>
       </c>
       <c r="C1035" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D1035">
         <v>3</v>
@@ -85721,7 +85715,7 @@
         <v>4</v>
       </c>
       <c r="C1040" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1040">
         <v>1</v>
@@ -86043,7 +86037,7 @@
         <v>1</v>
       </c>
       <c r="C1063" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1063">
         <v>8</v>
@@ -86141,7 +86135,7 @@
         <v>3</v>
       </c>
       <c r="C1070" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1070">
         <v>20</v>
@@ -86197,7 +86191,7 @@
         <v>3</v>
       </c>
       <c r="C1074" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1074">
         <v>5</v>
@@ -86645,7 +86639,7 @@
         <v>1</v>
       </c>
       <c r="C1106" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1106">
         <v>3</v>
@@ -86701,7 +86695,7 @@
         <v>2</v>
       </c>
       <c r="C1110" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1110">
         <v>5</v>
@@ -86729,7 +86723,7 @@
         <v>2</v>
       </c>
       <c r="C1112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1112">
         <v>1</v>
@@ -86883,7 +86877,7 @@
         <v>4</v>
       </c>
       <c r="C1123" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1123">
         <v>4</v>
@@ -87023,7 +87017,7 @@
         <v>1</v>
       </c>
       <c r="C1133" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1133">
         <v>3</v>
@@ -87205,7 +87199,7 @@
         <v>3</v>
       </c>
       <c r="C1146" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1146">
         <v>1</v>
@@ -87289,7 +87283,7 @@
         <v>4</v>
       </c>
       <c r="C1152" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D1152">
         <v>1</v>
@@ -87303,7 +87297,7 @@
         <v>1</v>
       </c>
       <c r="C1153" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1153">
         <v>42</v>
@@ -87653,7 +87647,7 @@
         <v>4</v>
       </c>
       <c r="C1178" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D1178">
         <v>5</v>
@@ -87877,7 +87871,7 @@
         <v>4</v>
       </c>
       <c r="C1194" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D1194">
         <v>1</v>
@@ -87905,7 +87899,7 @@
         <v>1</v>
       </c>
       <c r="C1196" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1196">
         <v>12</v>
@@ -87919,7 +87913,7 @@
         <v>1</v>
       </c>
       <c r="C1197" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1197">
         <v>30</v>
@@ -88129,7 +88123,7 @@
         <v>3</v>
       </c>
       <c r="C1212" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1212">
         <v>1</v>
@@ -88199,7 +88193,7 @@
         <v>4</v>
       </c>
       <c r="C1217" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1217">
         <v>1</v>
@@ -88241,7 +88235,7 @@
         <v>4</v>
       </c>
       <c r="C1220" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D1220">
         <v>2</v>
@@ -88255,7 +88249,7 @@
         <v>4</v>
       </c>
       <c r="C1221" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1221">
         <v>1</v>
@@ -88325,7 +88319,7 @@
         <v>1</v>
       </c>
       <c r="C1226" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1226">
         <v>25</v>
@@ -88661,7 +88655,7 @@
         <v>1</v>
       </c>
       <c r="C1250" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1250">
         <v>7</v>
@@ -88787,7 +88781,7 @@
         <v>2</v>
       </c>
       <c r="C1259" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1259">
         <v>10</v>
@@ -88983,7 +88977,7 @@
         <v>1</v>
       </c>
       <c r="C1273" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D1273">
         <v>2</v>
@@ -89277,7 +89271,7 @@
         <v>4</v>
       </c>
       <c r="C1294" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1294">
         <v>2</v>
@@ -89333,7 +89327,7 @@
         <v>1</v>
       </c>
       <c r="C1298" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1298">
         <v>18</v>
@@ -89375,7 +89369,7 @@
         <v>1</v>
       </c>
       <c r="C1301" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D1301">
         <v>3</v>
@@ -89389,7 +89383,7 @@
         <v>1</v>
       </c>
       <c r="C1302" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D1302">
         <v>2</v>
@@ -89487,7 +89481,7 @@
         <v>2</v>
       </c>
       <c r="C1309" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1309">
         <v>5</v>
@@ -89543,7 +89537,7 @@
         <v>3</v>
       </c>
       <c r="C1313" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1313">
         <v>3</v>
@@ -89781,7 +89775,7 @@
         <v>1</v>
       </c>
       <c r="C1330" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1330">
         <v>6</v>
@@ -89809,7 +89803,7 @@
         <v>1</v>
       </c>
       <c r="C1332" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1332">
         <v>1</v>
@@ -90061,7 +90055,7 @@
         <v>3</v>
       </c>
       <c r="C1350" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1350">
         <v>2</v>
@@ -90201,7 +90195,7 @@
         <v>1</v>
       </c>
       <c r="C1360" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1360">
         <v>5</v>
@@ -90285,7 +90279,7 @@
         <v>2</v>
       </c>
       <c r="C1366" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1366">
         <v>15</v>
@@ -90523,7 +90517,7 @@
         <v>4</v>
       </c>
       <c r="C1383" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1383">
         <v>1</v>
@@ -90537,7 +90531,7 @@
         <v>4</v>
       </c>
       <c r="C1384" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1384">
         <v>2</v>
@@ -90607,7 +90601,7 @@
         <v>1</v>
       </c>
       <c r="C1389" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D1389">
         <v>3</v>
@@ -90901,7 +90895,7 @@
         <v>1</v>
       </c>
       <c r="C1410" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1410">
         <v>15</v>
@@ -90999,7 +90993,7 @@
         <v>2</v>
       </c>
       <c r="C1417" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D1417">
         <v>8</v>
@@ -91097,7 +91091,7 @@
         <v>3</v>
       </c>
       <c r="C1424" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1424">
         <v>2</v>
@@ -91111,7 +91105,7 @@
         <v>3</v>
       </c>
       <c r="C1425" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D1425">
         <v>3</v>
@@ -91125,7 +91119,7 @@
         <v>3</v>
       </c>
       <c r="C1426" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1426">
         <v>1</v>
@@ -91265,7 +91259,7 @@
         <v>4</v>
       </c>
       <c r="C1436" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1436">
         <v>3</v>
@@ -91279,7 +91273,7 @@
         <v>4</v>
       </c>
       <c r="C1437" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1437">
         <v>3</v>
@@ -91293,7 +91287,7 @@
         <v>4</v>
       </c>
       <c r="C1438" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1438">
         <v>4</v>
@@ -91321,7 +91315,7 @@
         <v>4</v>
       </c>
       <c r="C1440" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1440">
         <v>3</v>
@@ -91797,7 +91791,7 @@
         <v>2</v>
       </c>
       <c r="C1474" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1474">
         <v>1</v>
@@ -91993,7 +91987,7 @@
         <v>1</v>
       </c>
       <c r="C1488" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D1488">
         <v>1</v>
